--- a/3.results/model_selection/mouette_melanocephale_R_2_covariates_blocks.xlsx
+++ b/3.results/model_selection/mouette_melanocephale_R_2_covariates_blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196CD3FE-67F5-4F8D-AC6B-9DC3B2CEB7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7398FD-89E0-4236-BA9A-A4774888E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="static_covs" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <t>mean_SST + sd_SST</t>
   </si>
   <si>
-    <t>beta_mean_CHL</t>
+    <t>beta_log_mean_CHL</t>
   </si>
   <si>
     <t>beta_mean_SSH</t>
@@ -192,7 +192,7 @@
     <t>beta_sd_VEL</t>
   </si>
   <si>
-    <t>sd_beta_mean_CHL</t>
+    <t>sd_beta_log_mean_CHL</t>
   </si>
   <si>
     <t>sd_beta_mean_SSH</t>
@@ -207,7 +207,7 @@
     <t>sd_beta_sd_VEL</t>
   </si>
   <si>
-    <t>mean_CHL</t>
+    <t>log_mean_CHL</t>
   </si>
   <si>
     <t>sd_SAL</t>
@@ -222,16 +222,16 @@
     <t>sd_VEL</t>
   </si>
   <si>
-    <t>mean_CHL + sd_SAL</t>
-  </si>
-  <si>
-    <t>mean_CHL + mean_SSH</t>
+    <t>log_mean_CHL + sd_SAL</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + mean_SSH</t>
   </si>
   <si>
     <t>sd_SAL + mean_SSH</t>
   </si>
   <si>
-    <t>mean_CHL + sd_SSH</t>
+    <t>log_mean_CHL + sd_SSH</t>
   </si>
   <si>
     <t>sd_SAL + sd_SSH</t>
@@ -240,7 +240,7 @@
     <t>mean_SSH + sd_SSH</t>
   </si>
   <si>
-    <t>mean_CHL + sd_VEL</t>
+    <t>log_mean_CHL + sd_VEL</t>
   </si>
   <si>
     <t>sd_SAL + sd_VEL</t>
@@ -252,28 +252,28 @@
     <t>sd_SSH + sd_VEL</t>
   </si>
   <si>
-    <t>mean_CHL + sd_SAL + mean_SSH</t>
-  </si>
-  <si>
-    <t>mean_CHL + sd_SAL + sd_SSH</t>
-  </si>
-  <si>
-    <t>mean_CHL + mean_SSH + sd_SSH</t>
+    <t>log_mean_CHL + sd_SAL + mean_SSH</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + sd_SAL + sd_SSH</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + mean_SSH + sd_SSH</t>
   </si>
   <si>
     <t>sd_SAL + mean_SSH + sd_SSH</t>
   </si>
   <si>
-    <t>mean_CHL + sd_SAL + sd_VEL</t>
-  </si>
-  <si>
-    <t>mean_CHL + mean_SSH + sd_VEL</t>
+    <t>log_mean_CHL + sd_SAL + sd_VEL</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + mean_SSH + sd_VEL</t>
   </si>
   <si>
     <t>sd_SAL + mean_SSH + sd_VEL</t>
   </si>
   <si>
-    <t>mean_CHL + sd_SSH + sd_VEL</t>
+    <t>log_mean_CHL + sd_SSH + sd_VEL</t>
   </si>
   <si>
     <t>sd_SAL + sd_SSH + sd_VEL</t>
@@ -282,22 +282,22 @@
     <t>mean_SSH + sd_SSH + sd_VEL</t>
   </si>
   <si>
-    <t>mean_CHL + sd_SAL + mean_SSH + sd_SSH</t>
-  </si>
-  <si>
-    <t>mean_CHL + sd_SAL + mean_SSH + sd_VEL</t>
-  </si>
-  <si>
-    <t>mean_CHL + sd_SAL + sd_SSH + sd_VEL</t>
-  </si>
-  <si>
-    <t>mean_CHL + mean_SSH + sd_SSH + sd_VEL</t>
+    <t>log_mean_CHL + sd_SAL + mean_SSH + sd_SSH</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + sd_SAL + mean_SSH + sd_VEL</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + sd_SAL + sd_SSH + sd_VEL</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + mean_SSH + sd_SSH + sd_VEL</t>
   </si>
   <si>
     <t>sd_SAL + mean_SSH + sd_SSH + sd_VEL</t>
   </si>
   <si>
-    <t>mean_CHL + sd_SAL + mean_SSH + sd_SSH + sd_VEL</t>
+    <t>log_mean_CHL + sd_SAL + mean_SSH + sd_SSH + sd_VEL</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1000,23 +1000,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>1.006</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>81.8</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="E2" s="1">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F2" s="1">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="1">
         <v>0.5</v>
@@ -1031,13 +1031,13 @@
         <v>976</v>
       </c>
       <c r="K2" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L2" s="1">
         <v>585</v>
       </c>
       <c r="M2" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1049,22 +1049,22 @@
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="C3" s="1">
-        <v>80.3</v>
+        <v>77.2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.51</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.49</v>
       </c>
       <c r="H3" s="1">
         <v>392</v>
@@ -1085,11 +1085,11 @@
         <v>975</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -1098,31 +1098,31 @@
         <v>19</v>
       </c>
       <c r="B4" s="1">
-        <v>1.375</v>
+        <v>1.093</v>
       </c>
       <c r="C4" s="1">
-        <v>69.8</v>
+        <v>101.7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E4" s="1">
         <v>0.52</v>
       </c>
       <c r="F4" s="1">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="G4" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H4" s="1">
         <v>390</v>
       </c>
       <c r="I4" s="1">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J4" s="1">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K4" s="1">
         <v>388</v>
@@ -1135,11 +1135,11 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1">
-        <v>-0.63</v>
+        <v>-0.6</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1147,19 +1147,19 @@
         <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>1.2869999999999999</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>55.7</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="D5" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E5" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
@@ -1174,22 +1174,22 @@
         <v>976</v>
       </c>
       <c r="K5" s="1">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L5" s="1">
         <v>584</v>
       </c>
       <c r="M5" s="1">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N5" s="1">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O5" s="1">
-        <v>-0.83</v>
+        <v>-0.77</v>
       </c>
       <c r="P5" s="1">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="Q5" s="1">
         <v>0.65</v>
@@ -1230,7 +1230,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="11">
-      <formula>H2&lt;395</formula>
+      <formula>H2&lt;392</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -1243,7 +1243,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="9">
-      <formula>I2&lt;589</formula>
+      <formula>I2&lt;586</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
@@ -1256,7 +1256,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="7">
-      <formula>J2&lt;981</formula>
+      <formula>J2&lt;977</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -1269,7 +1269,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="5">
-      <formula>K2&lt;393</formula>
+      <formula>K2&lt;390</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -1282,7 +1282,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="3">
-      <formula>L2&lt;589</formula>
+      <formula>L2&lt;586</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -1295,7 +1295,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="1">
-      <formula>M2&lt;978</formula>
+      <formula>M2&lt;975</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,19 +1395,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>1.006</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>81.8</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="E2" s="1">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F2" s="1">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="1">
         <v>0.5</v>
@@ -1422,13 +1422,13 @@
         <v>976</v>
       </c>
       <c r="K2" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L2" s="1">
         <v>585</v>
       </c>
       <c r="M2" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1448,22 +1448,22 @@
         <v>33</v>
       </c>
       <c r="B3" s="1">
-        <v>1.012</v>
+        <v>1.048</v>
       </c>
       <c r="C3" s="1">
-        <v>130.5</v>
+        <v>158.1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F3" s="1">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="G3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H3" s="1">
         <v>389</v>
@@ -1488,7 +1488,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
-        <v>-1.1299999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1496,7 +1496,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
@@ -1505,44 +1505,44 @@
         <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0589999999999999</v>
+        <v>1.377</v>
       </c>
       <c r="C4" s="1">
-        <v>106.7</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
         <v>0.17</v>
       </c>
       <c r="E4" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I4" s="1">
         <v>584</v>
       </c>
       <c r="J4" s="1">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K4" s="1">
         <v>391</v>
       </c>
       <c r="L4" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M4" s="1">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1">
-        <v>-0.34</v>
+        <v>-0.2</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1562,22 +1562,22 @@
         <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>1.179</v>
+        <v>1.198</v>
       </c>
       <c r="C5" s="1">
-        <v>92.6</v>
+        <v>59.7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E5" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F5" s="1">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="G5" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H5" s="1">
         <v>390</v>
@@ -1592,16 +1592,16 @@
         <v>388</v>
       </c>
       <c r="L5" s="1">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M5" s="1">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>-0.97</v>
+        <v>-0.93</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1609,26 +1609,26 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0640000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C6" s="1">
-        <v>109.4</v>
+        <v>166.7</v>
       </c>
       <c r="D6" s="1">
         <v>0.18</v>
       </c>
       <c r="E6" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F6" s="1">
         <v>0.67</v>
@@ -1655,7 +1655,7 @@
         <v>967</v>
       </c>
       <c r="N6" s="1">
-        <v>-1.26</v>
+        <v>-1.23</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1663,7 +1663,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1676,59 +1676,59 @@
         <v>37</v>
       </c>
       <c r="B7" s="1">
-        <v>1.04</v>
+        <v>1.171</v>
       </c>
       <c r="C7" s="1">
-        <v>110.8</v>
+        <v>98.2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E7" s="1">
         <v>0.52</v>
       </c>
       <c r="F7" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="G7" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H7" s="1">
         <v>390</v>
       </c>
       <c r="I7" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J7" s="1">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="K7" s="1">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L7" s="1">
         <v>581</v>
       </c>
       <c r="M7" s="1">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1">
-        <v>-0.28999999999999998</v>
+        <v>-0.23</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
-        <v>-1.1200000000000001</v>
+        <v>-1.07</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1">
-        <v>0.53</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y7" s="1"/>
     </row>
@@ -1737,31 +1737,31 @@
         <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>1.034</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>82.2</v>
+        <v>100.8</v>
       </c>
       <c r="D8" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E8" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F8" s="1">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="G8" s="1">
         <v>0.5</v>
       </c>
       <c r="H8" s="1">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I8" s="1">
         <v>582</v>
       </c>
       <c r="J8" s="1">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K8" s="1">
         <v>387</v>
@@ -1776,17 +1776,17 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>-0.57999999999999996</v>
+        <v>-0.59</v>
       </c>
       <c r="R8" s="1">
-        <v>-0.99</v>
+        <v>-1.02</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="X8" s="1">
         <v>0.61</v>
@@ -1798,19 +1798,19 @@
         <v>39</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0329999999999999</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>79.400000000000006</v>
+        <v>73.8</v>
       </c>
       <c r="D9" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E9" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F9" s="1">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="G9" s="1">
         <v>0.5</v>
@@ -1828,28 +1828,28 @@
         <v>389</v>
       </c>
       <c r="L9" s="1">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M9" s="1">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1">
-        <v>-0.14000000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1">
-        <v>-0.99</v>
+        <v>-1.04</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -1859,22 +1859,22 @@
         <v>40</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0209999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C10" s="1">
-        <v>108.5</v>
+        <v>113.3</v>
       </c>
       <c r="D10" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E10" s="1">
         <v>0.5</v>
       </c>
       <c r="F10" s="1">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="G10" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="1">
         <v>390</v>
@@ -1886,13 +1886,13 @@
         <v>971</v>
       </c>
       <c r="K10" s="1">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L10" s="1">
         <v>580</v>
       </c>
       <c r="M10" s="1">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N10" s="1">
         <v>-0.75</v>
@@ -1901,17 +1901,17 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
-        <v>-0.6</v>
+        <v>-0.61</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="Y10" s="1"/>
     </row>
@@ -1920,22 +1920,22 @@
         <v>41</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0409999999999999</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>96.8</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E11" s="1">
         <v>0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="G11" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H11" s="1">
         <v>390</v>
@@ -1950,26 +1950,26 @@
         <v>387</v>
       </c>
       <c r="L11" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M11" s="1">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N11" s="1">
-        <v>-1.39</v>
+        <v>-1.37</v>
       </c>
       <c r="O11" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="U11" s="1">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1981,31 +1981,31 @@
         <v>42</v>
       </c>
       <c r="B12" s="1">
-        <v>1.075</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>113.6</v>
+        <v>115.6</v>
       </c>
       <c r="D12" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E12" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F12" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="G12" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H12" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I12" s="1">
         <v>581</v>
       </c>
       <c r="J12" s="1">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K12" s="1">
         <v>388</v>
@@ -2017,22 +2017,22 @@
         <v>968</v>
       </c>
       <c r="N12" s="1">
-        <v>-1.1000000000000001</v>
+        <v>-1.05</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>-0.39</v>
+        <v>-0.36</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -2042,22 +2042,22 @@
         <v>43</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1240000000000001</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>93.6</v>
+        <v>82.1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E13" s="1">
         <v>0.51</v>
       </c>
       <c r="F13" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="G13" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H13" s="1">
         <v>390</v>
@@ -2069,36 +2069,36 @@
         <v>973</v>
       </c>
       <c r="K13" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L13" s="1">
         <v>581</v>
       </c>
       <c r="M13" s="1">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
-        <v>-0.02</v>
+        <v>0.12</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>-0.61</v>
+        <v>-0.73</v>
       </c>
       <c r="R13" s="1">
-        <v>-1.0900000000000001</v>
+        <v>-1.08</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="X13" s="1">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="Y13" s="1"/>
     </row>
@@ -2107,13 +2107,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="1">
-        <v>1.095</v>
+        <v>1.042</v>
       </c>
       <c r="C14" s="1">
-        <v>104.2</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E14" s="1">
         <v>0.52</v>
@@ -2143,27 +2143,27 @@
         <v>969</v>
       </c>
       <c r="N14" s="1">
-        <v>-0.87</v>
+        <v>-1</v>
       </c>
       <c r="O14" s="1">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
-        <v>-0.68</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U14" s="1">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
@@ -2172,10 +2172,10 @@
         <v>45</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0389999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="C15" s="1">
-        <v>108.3</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="D15" s="1">
         <v>0.17</v>
@@ -2184,7 +2184,7 @@
         <v>0.53</v>
       </c>
       <c r="F15" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="G15" s="1">
         <v>0.5</v>
@@ -2193,22 +2193,22 @@
         <v>390</v>
       </c>
       <c r="I15" s="1">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J15" s="1">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K15" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L15" s="1">
         <v>581</v>
       </c>
       <c r="M15" s="1">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N15" s="1">
-        <v>-0.54</v>
+        <v>-0.47</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2216,19 +2216,19 @@
         <v>-0.44</v>
       </c>
       <c r="R15" s="1">
-        <v>-0.67</v>
+        <v>-0.71</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="X15" s="1">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="Y15" s="1"/>
     </row>
@@ -2237,19 +2237,19 @@
         <v>46</v>
       </c>
       <c r="B16" s="1">
-        <v>1.056</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>94.7</v>
+        <v>81.5</v>
       </c>
       <c r="D16" s="1">
         <v>0.18</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F16" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="G16" s="1">
         <v>0.5</v>
@@ -2273,26 +2273,26 @@
         <v>967</v>
       </c>
       <c r="N16" s="1">
-        <v>-1.19</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>-0.5</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="U16" s="1">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -2302,22 +2302,22 @@
         <v>47</v>
       </c>
       <c r="B17" s="1">
-        <v>1.1080000000000001</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>114.2</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E17" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="G17" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="1">
         <v>390</v>
@@ -2338,55 +2338,55 @@
         <v>968</v>
       </c>
       <c r="N17" s="1">
-        <v>-0.8</v>
+        <v>-0.85</v>
       </c>
       <c r="O17" s="1">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
         <v>-0.51</v>
       </c>
       <c r="R17" s="1">
-        <v>-0.66</v>
+        <v>-0.7</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="U17" s="1">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="X17" s="1">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0589999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="C18" s="1">
-        <v>125.3</v>
+        <v>105.3</v>
       </c>
       <c r="D18" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E18" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F18" s="1">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="G18" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H18" s="1">
         <v>390</v>
@@ -2401,15 +2401,15 @@
         <v>387</v>
       </c>
       <c r="L18" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M18" s="1">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1">
-        <v>-1.1599999999999999</v>
+        <v>-1.22</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2417,7 +2417,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -2428,19 +2428,19 @@
         <v>49</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0529999999999999</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>88.2</v>
+        <v>92.2</v>
       </c>
       <c r="D19" s="1">
         <v>0.17</v>
       </c>
       <c r="E19" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F19" s="1">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G19" s="1">
         <v>0.5</v>
@@ -2455,13 +2455,13 @@
         <v>974</v>
       </c>
       <c r="K19" s="1">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L19" s="1">
         <v>585</v>
       </c>
       <c r="M19" s="1">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2477,7 +2477,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -2485,60 +2485,60 @@
         <v>50</v>
       </c>
       <c r="B20" s="1">
-        <v>1.153</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>71</v>
+        <v>126.8</v>
       </c>
       <c r="D20" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E20" s="1">
         <v>0.52</v>
       </c>
       <c r="F20" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="G20" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H20" s="1">
         <v>390</v>
       </c>
       <c r="I20" s="1">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J20" s="1">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K20" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L20" s="1">
         <v>581</v>
       </c>
       <c r="M20" s="1">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
-        <v>-1.19</v>
+        <v>-1.08</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1">
-        <v>0.69</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2576,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="11">
-      <formula>H2&lt;394</formula>
+      <formula>H2&lt;391</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I20">
@@ -2589,7 +2589,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="9">
-      <formula>I2&lt;585</formula>
+      <formula>I2&lt;582</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J20">
@@ -2602,7 +2602,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="7">
-      <formula>J2&lt;975</formula>
+      <formula>J2&lt;972</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
@@ -2615,7 +2615,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="5">
-      <formula>K2&lt;392</formula>
+      <formula>K2&lt;388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
@@ -2628,7 +2628,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="3">
-      <formula>L2&lt;584</formula>
+      <formula>L2&lt;582</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M20">
@@ -2641,7 +2641,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="1">
-      <formula>M2&lt;971</formula>
+      <formula>M2&lt;968</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,19 +2735,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>1.006</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>81.8</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="E2" s="1">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F2" s="1">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="1">
         <v>0.5</v>
@@ -2762,13 +2762,13 @@
         <v>976</v>
       </c>
       <c r="K2" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L2" s="1">
         <v>585</v>
       </c>
       <c r="M2" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2786,16 +2786,16 @@
         <v>61</v>
       </c>
       <c r="B3" s="1">
-        <v>1.083</v>
+        <v>1.026</v>
       </c>
       <c r="C3" s="1">
-        <v>101.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D3" s="1">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
         <v>0.63</v>
@@ -2816,13 +2816,13 @@
         <v>388</v>
       </c>
       <c r="L3" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M3" s="1">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N3" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2841,22 +2841,22 @@
         <v>62</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0329999999999999</v>
+        <v>1.254</v>
       </c>
       <c r="C4" s="1">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="D4" s="1">
         <v>0.18</v>
       </c>
       <c r="E4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.51</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.5</v>
       </c>
       <c r="H4" s="1">
         <v>393</v>
@@ -2868,25 +2868,25 @@
         <v>977</v>
       </c>
       <c r="K4" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L4" s="1">
         <v>585</v>
       </c>
       <c r="M4" s="1">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -2896,10 +2896,10 @@
         <v>63</v>
       </c>
       <c r="B5" s="1">
-        <v>1.2549999999999999</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>102.7</v>
+        <v>110.9</v>
       </c>
       <c r="D5" s="1">
         <v>0.17</v>
@@ -2911,7 +2911,7 @@
         <v>0.61</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H5" s="1">
         <v>393</v>
@@ -2933,14 +2933,14 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1">
-        <v>-0.25</v>
+        <v>-0.17</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -2951,22 +2951,22 @@
         <v>64</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0329999999999999</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>79.599999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E6" s="1">
         <v>0.52</v>
       </c>
       <c r="F6" s="1">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="G6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="1">
         <v>392</v>
@@ -2990,14 +2990,14 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>-0.79</v>
+        <v>-0.67</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -3006,19 +3006,19 @@
         <v>65</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0309999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="C7" s="1">
-        <v>89.7</v>
+        <v>69.2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E7" s="1">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="F7" s="1">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="G7" s="1">
         <v>0.51</v>
@@ -3036,24 +3036,24 @@
         <v>389</v>
       </c>
       <c r="L7" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M7" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1">
-        <v>-0.62</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -3061,22 +3061,22 @@
         <v>66</v>
       </c>
       <c r="B8" s="1">
-        <v>1.177</v>
+        <v>1.3</v>
       </c>
       <c r="C8" s="1">
-        <v>94.6</v>
+        <v>80.3</v>
       </c>
       <c r="D8" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F8" s="1">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="G8" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H8" s="1">
         <v>390</v>
@@ -3097,78 +3097,78 @@
         <v>973</v>
       </c>
       <c r="N8" s="1">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
-        <v>-0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="1">
-        <v>1.052</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>133.4</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D9" s="1">
         <v>0.17</v>
       </c>
       <c r="E9" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F9" s="1">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="G9" s="1">
         <v>0.5</v>
       </c>
       <c r="H9" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I9" s="1">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J9" s="1">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="K9" s="1">
         <v>389</v>
       </c>
       <c r="L9" s="1">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M9" s="1">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N9" s="1">
-        <v>1.02</v>
+        <v>0.81</v>
       </c>
       <c r="O9" s="1">
-        <v>-0.78</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="T9" s="1">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -3179,22 +3179,22 @@
         <v>68</v>
       </c>
       <c r="B10" s="1">
-        <v>1.1539999999999999</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>100.3</v>
+        <v>75.2</v>
       </c>
       <c r="D10" s="1">
         <v>0.17</v>
       </c>
       <c r="E10" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F10" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G10" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H10" s="1">
         <v>393</v>
@@ -3209,26 +3209,26 @@
         <v>391</v>
       </c>
       <c r="L10" s="1">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M10" s="1">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="P10" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="U10" s="1">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -3238,16 +3238,16 @@
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>1.1259999999999999</v>
+        <v>1.208</v>
       </c>
       <c r="C11" s="1">
-        <v>89.2</v>
+        <v>95.8</v>
       </c>
       <c r="D11" s="1">
         <v>0.16</v>
       </c>
       <c r="E11" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F11" s="1">
         <v>0.64</v>
@@ -3256,13 +3256,13 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I11" s="1">
         <v>585</v>
       </c>
       <c r="J11" s="1">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="K11" s="1">
         <v>388</v>
@@ -3274,7 +3274,7 @@
         <v>973</v>
       </c>
       <c r="N11" s="1">
-        <v>1.01</v>
+        <v>0.66</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -3283,12 +3283,12 @@
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -3297,22 +3297,22 @@
         <v>70</v>
       </c>
       <c r="B12" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>77</v>
+        <v>104.6</v>
       </c>
       <c r="D12" s="1">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E12" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F12" s="1">
         <v>0.61</v>
       </c>
       <c r="G12" s="1">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="1">
         <v>392</v>
@@ -3324,30 +3324,30 @@
         <v>976</v>
       </c>
       <c r="K12" s="1">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L12" s="1">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M12" s="1">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="Q12" s="1">
-        <v>-0.72</v>
+        <v>-0.68</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="V12" s="1">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3356,19 +3356,19 @@
         <v>71</v>
       </c>
       <c r="B13" s="1">
-        <v>1.022</v>
+        <v>1.141</v>
       </c>
       <c r="C13" s="1">
-        <v>119</v>
+        <v>102.9</v>
       </c>
       <c r="D13" s="1">
         <v>0.17</v>
       </c>
       <c r="E13" s="1">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F13" s="1">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="G13" s="1">
         <v>0.5</v>
@@ -3386,27 +3386,27 @@
         <v>390</v>
       </c>
       <c r="L13" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M13" s="1">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
-        <v>-0.34</v>
+        <v>-0.2</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>-0.81</v>
+        <v>-0.87</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3415,22 +3415,22 @@
         <v>72</v>
       </c>
       <c r="B14" s="1">
-        <v>1.1439999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="C14" s="1">
-        <v>84.7</v>
+        <v>67.3</v>
       </c>
       <c r="D14" s="1">
         <v>0.18</v>
       </c>
       <c r="E14" s="1">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F14" s="1">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G14" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="1">
         <v>390</v>
@@ -3445,13 +3445,13 @@
         <v>388</v>
       </c>
       <c r="L14" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M14" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N14" s="1">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3460,13 +3460,13 @@
         <v>-0.4</v>
       </c>
       <c r="S14" s="1">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3474,45 +3474,45 @@
         <v>73</v>
       </c>
       <c r="B15" s="1">
-        <v>1.131</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>111.3</v>
+        <v>117.3</v>
       </c>
       <c r="D15" s="1">
         <v>0.16</v>
       </c>
       <c r="E15" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F15" s="1">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="G15" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H15" s="1">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I15" s="1">
         <v>586</v>
       </c>
       <c r="J15" s="1">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K15" s="1">
         <v>390</v>
       </c>
       <c r="L15" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M15" s="1">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3521,11 +3521,11 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3533,58 +3533,58 @@
         <v>74</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0780000000000001</v>
+        <v>1.165</v>
       </c>
       <c r="C16" s="1">
-        <v>95.3</v>
+        <v>61.8</v>
       </c>
       <c r="D16" s="1">
         <v>0.17</v>
       </c>
       <c r="E16" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F16" s="1">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H16" s="1">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I16" s="1">
         <v>585</v>
       </c>
       <c r="J16" s="1">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K16" s="1">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L16" s="1">
         <v>587</v>
       </c>
       <c r="M16" s="1">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1">
-        <v>-0.11</v>
+        <v>0.08</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3592,10 +3592,10 @@
         <v>75</v>
       </c>
       <c r="B17" s="1">
-        <v>1.2150000000000001</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>75.5</v>
+        <v>89.4</v>
       </c>
       <c r="D17" s="1">
         <v>0.16</v>
@@ -3604,10 +3604,10 @@
         <v>0.51</v>
       </c>
       <c r="F17" s="1">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="G17" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="1">
         <v>391</v>
@@ -3622,28 +3622,28 @@
         <v>389</v>
       </c>
       <c r="L17" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M17" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
-        <v>-0.53</v>
+        <v>-0.52</v>
       </c>
       <c r="R17" s="1">
-        <v>-0.33</v>
+        <v>-0.31</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="W17" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -3651,60 +3651,60 @@
         <v>76</v>
       </c>
       <c r="B18" s="1">
-        <v>1.153</v>
+        <v>1.046</v>
       </c>
       <c r="C18" s="1">
-        <v>72.099999999999994</v>
+        <v>93.7</v>
       </c>
       <c r="D18" s="1">
         <v>0.17</v>
       </c>
       <c r="E18" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.51</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.5</v>
       </c>
       <c r="H18" s="1">
         <v>391</v>
       </c>
       <c r="I18" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J18" s="1">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="K18" s="1">
         <v>389</v>
       </c>
       <c r="L18" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M18" s="1">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N18" s="1">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="O18" s="1">
-        <v>-0.72</v>
+        <v>-0.59</v>
       </c>
       <c r="P18" s="1">
-        <v>-0.37</v>
+        <v>-0.19</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="T18" s="1">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="U18" s="1">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -3714,13 +3714,13 @@
         <v>77</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0189999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="C19" s="1">
-        <v>107.1</v>
+        <v>110.5</v>
       </c>
       <c r="D19" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E19" s="1">
         <v>0.51</v>
@@ -3729,16 +3729,16 @@
         <v>0.65</v>
       </c>
       <c r="G19" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H19" s="1">
         <v>390</v>
       </c>
       <c r="I19" s="1">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J19" s="1">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K19" s="1">
         <v>388</v>
@@ -3750,25 +3750,25 @@
         <v>972</v>
       </c>
       <c r="N19" s="1">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="Q19" s="1">
         <v>-0.61</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <v>0.77</v>
+        <v>0.61</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="V19" s="1">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3777,61 +3777,61 @@
         <v>78</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0880000000000001</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>108.2</v>
+        <v>97.1</v>
       </c>
       <c r="D20" s="1">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="E20" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F20" s="1">
         <v>0.63</v>
       </c>
       <c r="G20" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H20" s="1">
         <v>391</v>
       </c>
       <c r="I20" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J20" s="1">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="K20" s="1">
         <v>389</v>
       </c>
       <c r="L20" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M20" s="1">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N20" s="1">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="O20" s="1">
-        <v>-0.61</v>
+        <v>-0.44</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1">
-        <v>-0.49</v>
+        <v>-0.61</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
         <v>0.68</v>
       </c>
       <c r="T20" s="1">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3840,19 +3840,19 @@
         <v>79</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0289999999999999</v>
+        <v>1.198</v>
       </c>
       <c r="C21" s="1">
-        <v>106.5</v>
+        <v>105.4</v>
       </c>
       <c r="D21" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E21" s="1">
         <v>0.51</v>
       </c>
       <c r="F21" s="1">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G21" s="1">
         <v>0.5</v>
@@ -3877,24 +3877,24 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="P21" s="1">
-        <v>0.37</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>-0.79</v>
+        <v>-0.64</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
-        <v>1.04</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="U21" s="1">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="V21" s="1">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3903,19 +3903,19 @@
         <v>80</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.073</v>
       </c>
       <c r="C22" s="1">
-        <v>77</v>
+        <v>71.8</v>
       </c>
       <c r="D22" s="1">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F22" s="1">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G22" s="1">
         <v>0.5</v>
@@ -3930,35 +3930,35 @@
         <v>977</v>
       </c>
       <c r="K22" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L22" s="1">
         <v>587</v>
       </c>
       <c r="M22" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N22" s="1">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1">
-        <v>-0.3</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3966,31 +3966,31 @@
         <v>81</v>
       </c>
       <c r="B23" s="1">
-        <v>1.0960000000000001</v>
+        <v>1.228</v>
       </c>
       <c r="C23" s="1">
-        <v>71.8</v>
+        <v>83.1</v>
       </c>
       <c r="D23" s="1">
         <v>0.18</v>
       </c>
       <c r="E23" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="1">
         <v>0.64</v>
       </c>
       <c r="G23" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="1">
         <v>391</v>
       </c>
       <c r="I23" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J23" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="K23" s="1">
         <v>389</v>
@@ -4002,26 +4002,26 @@
         <v>974</v>
       </c>
       <c r="N23" s="1">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="O23" s="1">
-        <v>-0.77</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1">
-        <v>-0.24</v>
+        <v>-0.33</v>
       </c>
       <c r="S23" s="1">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="T23" s="1">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -4029,62 +4029,62 @@
         <v>82</v>
       </c>
       <c r="B24" s="1">
-        <v>1.1499999999999999</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>78.599999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D24" s="1">
         <v>0.17</v>
       </c>
       <c r="E24" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="F24" s="1">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G24" s="1">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="1">
         <v>392</v>
       </c>
       <c r="I24" s="1">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J24" s="1">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K24" s="1">
         <v>390</v>
       </c>
       <c r="L24" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M24" s="1">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="P24" s="1">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1">
-        <v>-0.46</v>
+        <v>-0.3</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="U24" s="1">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -4092,16 +4092,16 @@
         <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0249999999999999</v>
+        <v>1.236</v>
       </c>
       <c r="C25" s="1">
-        <v>105.9</v>
+        <v>82.4</v>
       </c>
       <c r="D25" s="1">
         <v>0.17</v>
       </c>
       <c r="E25" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F25" s="1">
         <v>0.62</v>
@@ -4122,32 +4122,32 @@
         <v>389</v>
       </c>
       <c r="L25" s="1">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M25" s="1">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N25" s="1">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1">
-        <v>-0.72</v>
+        <v>-0.62</v>
       </c>
       <c r="R25" s="1">
-        <v>0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="S25" s="1">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="W25" s="1">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -4155,22 +4155,22 @@
         <v>84</v>
       </c>
       <c r="B26" s="1">
-        <v>1.278</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>111.2</v>
+        <v>72.7</v>
       </c>
       <c r="D26" s="1">
         <v>0.17</v>
       </c>
       <c r="E26" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F26" s="1">
         <v>0.6</v>
       </c>
       <c r="G26" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H26" s="1">
         <v>392</v>
@@ -4193,24 +4193,24 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="Q26" s="1">
-        <v>-0.5</v>
+        <v>-0.63</v>
       </c>
       <c r="R26" s="1">
-        <v>-0.23</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="W26" s="1">
         <v>0.66</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0.62</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -4218,19 +4218,19 @@
         <v>85</v>
       </c>
       <c r="B27" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.127</v>
       </c>
       <c r="C27" s="1">
-        <v>115.7</v>
+        <v>102.6</v>
       </c>
       <c r="D27" s="1">
         <v>0.17</v>
       </c>
       <c r="E27" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F27" s="1">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="G27" s="1">
         <v>0.49</v>
@@ -4239,107 +4239,107 @@
         <v>392</v>
       </c>
       <c r="I27" s="1">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J27" s="1">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K27" s="1">
         <v>390</v>
       </c>
       <c r="L27" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M27" s="1">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.21</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1">
-        <v>-0.51</v>
+        <v>-0.65</v>
       </c>
       <c r="R27" s="1">
-        <v>-0.31</v>
+        <v>-0.26</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
-        <v>0.94</v>
+        <v>0.88</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="W27" s="1">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="1">
-        <v>1.2529999999999999</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>103.7</v>
+        <v>87.9</v>
       </c>
       <c r="D28" s="1">
         <v>0.16</v>
       </c>
       <c r="E28" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F28" s="1">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="G28" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="1">
         <v>391</v>
       </c>
       <c r="I28" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J28" s="1">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="K28" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L28" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M28" s="1">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="N28" s="1">
-        <v>1.1599999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O28" s="1">
-        <v>-0.54</v>
+        <v>-0.46</v>
       </c>
       <c r="P28" s="1">
-        <v>-0.3</v>
+        <v>-0.24</v>
       </c>
       <c r="Q28" s="1">
-        <v>-0.44</v>
+        <v>-0.48</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="T28" s="1">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U28" s="1">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
       <c r="V28" s="1">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4348,10 +4348,10 @@
         <v>87</v>
       </c>
       <c r="B29" s="1">
-        <v>1.3120000000000001</v>
+        <v>1.153</v>
       </c>
       <c r="C29" s="1">
-        <v>112.7</v>
+        <v>83.1</v>
       </c>
       <c r="D29" s="1">
         <v>0.17</v>
@@ -4360,54 +4360,54 @@
         <v>0.51</v>
       </c>
       <c r="F29" s="1">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="G29" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H29" s="1">
         <v>391</v>
       </c>
       <c r="I29" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J29" s="1">
+        <v>977</v>
+      </c>
+      <c r="K29" s="1">
+        <v>390</v>
+      </c>
+      <c r="L29" s="1">
+        <v>585</v>
+      </c>
+      <c r="M29" s="1">
         <v>975</v>
       </c>
-      <c r="K29" s="1">
-        <v>389</v>
-      </c>
-      <c r="L29" s="1">
-        <v>584</v>
-      </c>
-      <c r="M29" s="1">
-        <v>973</v>
-      </c>
       <c r="N29" s="1">
-        <v>1.37</v>
+        <v>0.94</v>
       </c>
       <c r="O29" s="1">
-        <v>-0.81</v>
+        <v>-0.5</v>
       </c>
       <c r="P29" s="1">
-        <v>-0.4</v>
+        <v>-0.16</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1">
         <v>-0.17</v>
       </c>
       <c r="S29" s="1">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="T29" s="1">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="U29" s="1">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -4415,66 +4415,66 @@
         <v>88</v>
       </c>
       <c r="B30" s="1">
-        <v>1.139</v>
+        <v>1.153</v>
       </c>
       <c r="C30" s="1">
-        <v>123.9</v>
+        <v>90.7</v>
       </c>
       <c r="D30" s="1">
         <v>0.17</v>
       </c>
       <c r="E30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G30" s="1">
         <v>0.51</v>
       </c>
-      <c r="F30" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.52</v>
-      </c>
       <c r="H30" s="1">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I30" s="1">
         <v>587</v>
       </c>
       <c r="J30" s="1">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K30" s="1">
         <v>388</v>
       </c>
       <c r="L30" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M30" s="1">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="N30" s="1">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1">
-        <v>0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="Q30" s="1">
-        <v>-0.56000000000000005</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="R30" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S30" s="1">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="V30" s="1">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="W30" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4482,28 +4482,28 @@
         <v>89</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0680000000000001</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>100.3</v>
+        <v>119.7</v>
       </c>
       <c r="D31" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E31" s="1">
         <v>0.51</v>
       </c>
       <c r="F31" s="1">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G31" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H31" s="1">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I31" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J31" s="1">
         <v>977</v>
@@ -4518,30 +4518,30 @@
         <v>974</v>
       </c>
       <c r="N31" s="1">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="O31" s="1">
-        <v>-0.48</v>
+        <v>-0.45</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1">
-        <v>-0.56999999999999995</v>
+        <v>-0.5</v>
       </c>
       <c r="R31" s="1">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="S31" s="1">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="T31" s="1">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="W31" s="1">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -4549,10 +4549,10 @@
         <v>90</v>
       </c>
       <c r="B32" s="1">
-        <v>1.1279999999999999</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="C32" s="1">
-        <v>109</v>
+        <v>124.1</v>
       </c>
       <c r="D32" s="1">
         <v>0.16</v>
@@ -4561,10 +4561,10 @@
         <v>0.51</v>
       </c>
       <c r="F32" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="G32" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="1">
         <v>392</v>
@@ -4579,36 +4579,36 @@
         <v>390</v>
       </c>
       <c r="L32" s="1">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M32" s="1">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="P32" s="1">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="Q32" s="1">
-        <v>-0.71</v>
+        <v>-0.51</v>
       </c>
       <c r="R32" s="1">
-        <v>-0.09</v>
+        <v>-0.18</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U32" s="1">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="V32" s="1">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="W32" s="1">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -4616,31 +4616,31 @@
         <v>91</v>
       </c>
       <c r="B33" s="1">
-        <v>1.232</v>
+        <v>1.032</v>
       </c>
       <c r="C33" s="1">
-        <v>85.3</v>
+        <v>109.8</v>
       </c>
       <c r="D33" s="1">
         <v>0.17</v>
       </c>
       <c r="E33" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F33" s="1">
         <v>0.63</v>
       </c>
       <c r="G33" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H33" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I33" s="1">
         <v>586</v>
       </c>
       <c r="J33" s="1">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="K33" s="1">
         <v>389</v>
@@ -4652,34 +4652,34 @@
         <v>974</v>
       </c>
       <c r="N33" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="O33" s="1">
-        <v>-0.52</v>
+        <v>-0.38</v>
       </c>
       <c r="P33" s="1">
-        <v>-0.28999999999999998</v>
+        <v>-0.16</v>
       </c>
       <c r="Q33" s="1">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="R33" s="1">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="S33" s="1">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="T33" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="U33" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="V33" s="1">
         <v>0.76</v>
       </c>
       <c r="W33" s="1">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +4717,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>H2&lt;394</formula>
+      <formula>H2&lt;391</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I33">
@@ -4730,7 +4730,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula>I2&lt;587</formula>
+      <formula>I2&lt;585</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J33">
@@ -4743,7 +4743,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="7">
-      <formula>J2&lt;978</formula>
+      <formula>J2&lt;977</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K33">
@@ -4756,7 +4756,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>K2&lt;393</formula>
+      <formula>K2&lt;390</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L33">
@@ -4769,7 +4769,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;587</formula>
+      <formula>L2&lt;584</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M33">
@@ -4782,7 +4782,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>M2&lt;975</formula>
+      <formula>M2&lt;973</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
